--- a/municipal/ვაჭრობა/ბაზრების და ბაზრობების რაოდენობა საკუთრების ფორმის მიხედვით/ბაზრების და ბაზრობების რაოდენობა საკუთრების ფორმის მიხედვით.xlsx
+++ b/municipal/ვაჭრობა/ბაზრების და ბაზრობების რაოდენობა საკუთრების ფორმის მიხედვით/ბაზრების და ბაზრობების რაოდენობა საკუთრების ფორმის მიხედვით.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ETSERT~1\AppData\Local\Temp\Rar$DIa14136.4329\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gamashukeli\Desktop\ვაჭრობა ქარ. EN\ბ&amp;ბ რაოდენობა საკუთრების ფორმის მიხედვით\ბაზრების და ბაზრობების რაოდენობა საკუთრების ფორმის მიხედვით\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -245,7 +245,26 @@
     <t>ხაშურის მუნიციპალიტეტი</t>
   </si>
   <si>
-    <t>... - მონაცემი არ არის ან კონფიდენციალურია</t>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="Sylfaen"/>
+        <family val="1"/>
+      </rPr>
+      <t>შენიშვნა:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="Sylfaen"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> "..." - მონაცემი არ არის ან კონფიდენციალურია</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -255,7 +274,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0_);\(0\);\-"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -290,6 +309,14 @@
       <family val="1"/>
     </font>
     <font>
+      <sz val="9"/>
+      <color indexed="8"/>
+      <name val="Sylfaen"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
       <sz val="9"/>
       <color indexed="8"/>
       <name val="Sylfaen"/>
@@ -845,7 +872,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC72"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:A4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
